--- a/outPut/generateReport.xlsx
+++ b/outPut/generateReport.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="104">
   <si>
     <t>Application Name</t>
   </si>
@@ -58,6 +58,15 @@
     <t>Go Live</t>
   </si>
   <si>
+    <t>04-Dec</t>
+  </si>
+  <si>
+    <t>11-Dec</t>
+  </si>
+  <si>
+    <t>18-Dec</t>
+  </si>
+  <si>
     <t>25-Dec</t>
   </si>
   <si>
@@ -100,49 +109,46 @@
     <t>25-Mar</t>
   </si>
   <si>
+    <t>31-Mar</t>
+  </si>
+  <si>
     <t>01-Apr</t>
   </si>
   <si>
+    <t>07-Apr</t>
+  </si>
+  <si>
     <t>08-Apr</t>
   </si>
   <si>
     <t>BAU - Platform Modernization</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>25-Dec-23</t>
-  </si>
-  <si>
-    <t>12-Jan-24</t>
-  </si>
-  <si>
-    <t>15-Jan-24</t>
-  </si>
-  <si>
-    <t>23-Feb-24</t>
-  </si>
-  <si>
-    <t>26-Feb-24</t>
-  </si>
-  <si>
-    <t>15-Mar-24</t>
-  </si>
-  <si>
-    <t>18-Mar-24</t>
-  </si>
-  <si>
-    <t>7-Apr-24</t>
-  </si>
-  <si>
-    <t>8-Apr-24</t>
+    <t>05-Dec-2023</t>
+  </si>
+  <si>
+    <t>12-Jan-2024</t>
+  </si>
+  <si>
+    <t>15-Jan-2024</t>
+  </si>
+  <si>
+    <t>23-Feb-2024</t>
+  </si>
+  <si>
+    <t>26-Feb-2024</t>
+  </si>
+  <si>
+    <t>15-Mar-2024</t>
+  </si>
+  <si>
+    <t>18-Mar-2024</t>
+  </si>
+  <si>
+    <t>06-Apr-2024</t>
+  </si>
+  <si>
+    <t>07-Apr-2024</t>
   </si>
   <si>
     <t>Planning</t>
@@ -163,115 +169,103 @@
     <t>Dynamic365</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>8-Jan-24</t>
-  </si>
-  <si>
-    <t>26-Jan-24</t>
-  </si>
-  <si>
-    <t>29-Jan-24</t>
-  </si>
-  <si>
-    <t>1-Mar-24</t>
-  </si>
-  <si>
-    <t>4-Mar-24</t>
-  </si>
-  <si>
-    <t>17-Mar-24</t>
+    <t>08-Jan-2024</t>
+  </si>
+  <si>
+    <t>26-Jan-2024</t>
+  </si>
+  <si>
+    <t>29-Jan-2024</t>
+  </si>
+  <si>
+    <t>01-Mar-2024</t>
+  </si>
+  <si>
+    <t>04-Mar-2024</t>
+  </si>
+  <si>
+    <t>17-Mar-2024</t>
+  </si>
+  <si>
+    <t>08-Apr-2024</t>
   </si>
   <si>
     <t>Crump ACE Case</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>5-Jan-24</t>
-  </si>
-  <si>
-    <t>2-Feb-24</t>
-  </si>
-  <si>
-    <t>5-Feb-24</t>
-  </si>
-  <si>
-    <t>16-Feb-24</t>
-  </si>
-  <si>
-    <t>19-Feb-24</t>
-  </si>
-  <si>
-    <t>3-Mar-24</t>
+    <t>25-Dec-2023</t>
+  </si>
+  <si>
+    <t>05-Jan-2024</t>
+  </si>
+  <si>
+    <t>02-Feb-2024</t>
+  </si>
+  <si>
+    <t>05-Feb-2024</t>
+  </si>
+  <si>
+    <t>16-Feb-2024</t>
+  </si>
+  <si>
+    <t>19-Feb-2024</t>
+  </si>
+  <si>
+    <t>03-Mar-2024</t>
   </si>
   <si>
     <t>Tapsys2006 Shell</t>
   </si>
   <si>
-    <t>1-Jan-24</t>
-  </si>
-  <si>
-    <t>9-Feb-24</t>
-  </si>
-  <si>
-    <t>12-Feb-24</t>
-  </si>
-  <si>
-    <t>10-Mar-24</t>
-  </si>
-  <si>
-    <t>11-Mar-24</t>
+    <t>01-Jan-2024</t>
+  </si>
+  <si>
+    <t>09-Feb-2024</t>
+  </si>
+  <si>
+    <t>12-Feb-2024</t>
+  </si>
+  <si>
+    <t>10-Mar-2024</t>
+  </si>
+  <si>
+    <t>11-Mar-2024</t>
   </si>
   <si>
     <t>Agency Management</t>
   </si>
   <si>
-    <t>19-Jan-24</t>
-  </si>
-  <si>
-    <t>22-Jan-24</t>
+    <t>19-Jan-2024</t>
+  </si>
+  <si>
+    <t>22-Jan-2024</t>
   </si>
   <si>
     <t>Agency Portal</t>
   </si>
   <si>
-    <t>8-Mar-24</t>
-  </si>
-  <si>
-    <t>24-Mar-24</t>
-  </si>
-  <si>
-    <t>25-Mar-24</t>
+    <t>08-Mar-2024</t>
+  </si>
+  <si>
+    <t>24-Mar-2024</t>
+  </si>
+  <si>
+    <t>25-Mar-2024</t>
   </si>
   <si>
     <t>Compliance</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>Document Server</t>
   </si>
   <si>
-    <t>22-Mar-24</t>
-  </si>
-  <si>
-    <t>29-Mar-24</t>
-  </si>
-  <si>
-    <t>1-Apr-24</t>
+    <t>22-Mar-2024</t>
+  </si>
+  <si>
+    <t>29-Mar-2024</t>
+  </si>
+  <si>
+    <t>01-Apr-2024</t>
   </si>
   <si>
     <t>Insurance Portal</t>
@@ -280,7 +274,10 @@
     <t>SSRS Reports</t>
   </si>
   <si>
-    <t>30-Mar-24</t>
+    <t>30-Mar-2024</t>
+  </si>
+  <si>
+    <t>31-Mar-2024</t>
   </si>
   <si>
     <t>Tapco Web Portal</t>
@@ -292,9 +289,6 @@
     <t>Agency Workspace – Salesforce Experience Cloud</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -311,9 +305,6 @@
   </si>
   <si>
     <t>BenAdmin Enhanced-Billing Generation App</t>
-  </si>
-  <si>
-    <t>24-Mar-23</t>
   </si>
   <si>
     <t>BenAdmin New Hire/Employee Onboarding</t>
@@ -748,10 +739,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE25"/>
+  <dimension ref="A1:AJ25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -845,98 +842,117 @@
       <c r="AE1" t="s">
         <v>30</v>
       </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="5" t="s">
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
         <v>51</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
       </c>
       <c r="G3" t="s">
         <v>52</v>
@@ -957,60 +973,62 @@
         <v>57</v>
       </c>
       <c r="M3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="O3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="Y3" s="2"/>
-      <c r="Z3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="5" t="s">
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
         <v>59</v>
       </c>
-      <c r="F4" t="s">
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
         <v>60</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
       </c>
       <c r="H4" t="s">
         <v>61</v>
@@ -1036,55 +1054,55 @@
       <c r="O4" t="s">
         <v>56</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="3" t="s">
+      <c r="S4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="W4" s="3"/>
-      <c r="X4" s="4" t="s">
+      <c r="T4" s="1"/>
+      <c r="U4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="5" t="s">
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>67</v>
       </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" t="s">
-        <v>60</v>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
       </c>
       <c r="G5" t="s">
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s">
         <v>69</v>
@@ -1093,10 +1111,10 @@
         <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N5" t="s">
         <v>71</v>
@@ -1104,46 +1122,46 @@
       <c r="O5" t="s">
         <v>72</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R5" s="1"/>
-      <c r="S5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="3" t="s">
+      <c r="T5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="4" t="s">
+      <c r="U5" s="1"/>
+      <c r="V5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="5" t="s">
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>73</v>
       </c>
-      <c r="B6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" t="s">
-        <v>60</v>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
       </c>
       <c r="G6" t="s">
         <v>52</v>
@@ -1170,51 +1188,51 @@
         <v>57</v>
       </c>
       <c r="O6" t="s">
-        <v>41</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S6" s="1"/>
-      <c r="T6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="4" t="s">
+      <c r="V6" s="1"/>
+      <c r="W6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="5" t="s">
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>76</v>
       </c>
-      <c r="B7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" t="s">
-        <v>60</v>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
         <v>53</v>
@@ -1223,10 +1241,10 @@
         <v>54</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L7" t="s">
         <v>77</v>
@@ -1240,46 +1258,46 @@
       <c r="O7" t="s">
         <v>79</v>
       </c>
-      <c r="S7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T7" s="1"/>
-      <c r="U7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="3" t="s">
+      <c r="V7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="4" t="s">
+      <c r="W7" s="1"/>
+      <c r="X7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="5" t="s">
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>80</v>
       </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" t="s">
-        <v>82</v>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
       </c>
       <c r="G8" t="s">
         <v>63</v>
@@ -1308,43 +1326,43 @@
       <c r="O8" t="s">
         <v>79</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="3" t="s">
+      <c r="Y8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AA8" s="4" t="s">
+      <c r="Z8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="5" t="s">
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="AD8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" t="s">
         <v>81</v>
       </c>
-      <c r="E9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" t="s">
-        <v>50</v>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
       </c>
       <c r="G9" t="s">
         <v>56</v>
@@ -1356,131 +1374,135 @@
         <v>72</v>
       </c>
       <c r="J9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K9" t="s">
         <v>79</v>
       </c>
       <c r="L9" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" t="s">
+        <v>84</v>
+      </c>
+      <c r="N9" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>85</v>
       </c>
-      <c r="M9" t="s">
-        <v>86</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" t="s">
         <v>42</v>
       </c>
-      <c r="O9" t="s">
+      <c r="M10" t="s">
         <v>43</v>
       </c>
-      <c r="Z9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA9" s="2" t="s">
+      <c r="N10" t="s">
         <v>45</v>
       </c>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="3" t="s">
+      <c r="O10" t="s">
+        <v>58</v>
+      </c>
+      <c r="S10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AD9" s="4" t="s">
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AE9" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M10" t="s">
-        <v>41</v>
-      </c>
-      <c r="N10" t="s">
-        <v>42</v>
-      </c>
-      <c r="O10" t="s">
-        <v>43</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="5" t="s">
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>51</v>
+        <v>86</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
       </c>
       <c r="G11" t="s">
         <v>68</v>
@@ -1492,10 +1514,10 @@
         <v>75</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L11" t="s">
         <v>71</v>
@@ -1504,54 +1526,54 @@
         <v>72</v>
       </c>
       <c r="N11" t="s">
+        <v>87</v>
+      </c>
+      <c r="O11" t="s">
+        <v>88</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>89</v>
       </c>
-      <c r="O11" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" t="s">
-        <v>60</v>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
       </c>
       <c r="G12" t="s">
         <v>75</v>
@@ -1569,57 +1591,57 @@
         <v>56</v>
       </c>
       <c r="L12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O12" t="s">
-        <v>86</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U12" s="1"/>
-      <c r="V12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="W12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="4" t="s">
+      <c r="X12" s="1"/>
+      <c r="Y12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="5" t="s">
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" t="s">
-        <v>60</v>
+        <v>90</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
       </c>
       <c r="G13" t="s">
         <v>54</v>
@@ -1637,57 +1659,59 @@
         <v>72</v>
       </c>
       <c r="L13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M13" t="s">
         <v>79</v>
       </c>
       <c r="N13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="O13" t="s">
-        <v>43</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V13" s="1"/>
-      <c r="W13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="X13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="4" t="s">
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="5" t="s">
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
         <v>92</v>
       </c>
-      <c r="B14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" t="s">
-        <v>60</v>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
       </c>
       <c r="G14" t="s">
         <v>54</v>
@@ -1705,57 +1729,59 @@
         <v>72</v>
       </c>
       <c r="L14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M14" t="s">
         <v>79</v>
       </c>
       <c r="N14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="O14" t="s">
-        <v>43</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V14" s="1"/>
-      <c r="W14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="X14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="4" t="s">
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="5" t="s">
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" t="s">
         <v>93</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
       <c r="C15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" t="s">
-        <v>60</v>
+        <v>92</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
       </c>
       <c r="G15" t="s">
         <v>54</v>
@@ -1773,72 +1799,74 @@
         <v>72</v>
       </c>
       <c r="L15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M15" t="s">
         <v>79</v>
       </c>
       <c r="N15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="O15" t="s">
-        <v>43</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V15" s="1"/>
-      <c r="W15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="X15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="4" t="s">
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="5" t="s">
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" t="s">
-        <v>82</v>
+        <v>92</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
       </c>
       <c r="G16" t="s">
         <v>65</v>
       </c>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L16" t="s">
         <v>78</v>
@@ -1847,51 +1875,53 @@
         <v>79</v>
       </c>
       <c r="N16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="O16" t="s">
-        <v>43</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AC16" s="4" t="s">
+      <c r="AB16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="5" t="s">
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="AF16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" t="s">
-        <v>50</v>
+        <v>92</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H17" t="s">
         <v>55</v>
@@ -1900,140 +1930,142 @@
         <v>56</v>
       </c>
       <c r="J17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M17" t="s">
         <v>79</v>
       </c>
       <c r="N17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O17" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG17" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M18" t="s">
+        <v>43</v>
+      </c>
+      <c r="N18" t="s">
         <v>45</v>
       </c>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="3" t="s">
+      <c r="O18" t="s">
+        <v>58</v>
+      </c>
+      <c r="S18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AC17" s="4" t="s">
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AD17" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" t="s">
-        <v>36</v>
-      </c>
-      <c r="I18" t="s">
-        <v>37</v>
-      </c>
-      <c r="J18" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18" t="s">
-        <v>39</v>
-      </c>
-      <c r="L18" t="s">
-        <v>40</v>
-      </c>
-      <c r="M18" t="s">
-        <v>41</v>
-      </c>
-      <c r="N18" t="s">
-        <v>42</v>
-      </c>
-      <c r="O18" t="s">
-        <v>43</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="5" t="s">
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" t="s">
-        <v>93</v>
+        <v>97</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" t="s">
-        <v>51</v>
+        <v>92</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J19" t="s">
         <v>64</v>
@@ -2048,54 +2080,54 @@
         <v>56</v>
       </c>
       <c r="N19" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="O19" t="s">
         <v>79</v>
       </c>
-      <c r="P19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
+      <c r="S19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="W19" s="2"/>
-      <c r="X19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="5" t="s">
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" t="s">
-        <v>93</v>
+        <v>98</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" t="s">
-        <v>60</v>
+        <v>92</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>8</v>
       </c>
       <c r="G20" t="s">
         <v>75</v>
@@ -2113,60 +2145,60 @@
         <v>56</v>
       </c>
       <c r="L20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O20" t="s">
-        <v>86</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U20" s="1"/>
-      <c r="V20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="W20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="4" t="s">
+      <c r="X20" s="1"/>
+      <c r="Y20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="5" t="s">
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" t="s">
-        <v>93</v>
+        <v>99</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" t="s">
-        <v>60</v>
+        <v>92</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H21" t="s">
         <v>53</v>
@@ -2175,10 +2207,10 @@
         <v>54</v>
       </c>
       <c r="J21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L21" t="s">
         <v>77</v>
@@ -2192,55 +2224,55 @@
       <c r="O21" t="s">
         <v>79</v>
       </c>
-      <c r="S21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T21" s="1"/>
-      <c r="U21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="3" t="s">
+      <c r="V21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="4" t="s">
+      <c r="W21" s="1"/>
+      <c r="X21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="5" t="s">
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22" t="s">
-        <v>93</v>
+        <v>100</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" t="s">
-        <v>60</v>
+        <v>92</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
       </c>
       <c r="G22" t="s">
         <v>68</v>
       </c>
       <c r="H22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J22" t="s">
         <v>69</v>
@@ -2249,10 +2281,10 @@
         <v>70</v>
       </c>
       <c r="L22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N22" t="s">
         <v>71</v>
@@ -2260,46 +2292,46 @@
       <c r="O22" t="s">
         <v>72</v>
       </c>
-      <c r="Q22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R22" s="1"/>
-      <c r="S22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="3" t="s">
+      <c r="T22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="4" t="s">
+      <c r="U22" s="1"/>
+      <c r="V22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="5" t="s">
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" t="s">
-        <v>93</v>
+        <v>101</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" t="s">
-        <v>60</v>
+        <v>92</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>8</v>
       </c>
       <c r="G23" t="s">
         <v>52</v>
@@ -2326,48 +2358,48 @@
         <v>57</v>
       </c>
       <c r="O23" t="s">
-        <v>41</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S23" s="1"/>
-      <c r="T23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="4" t="s">
+      <c r="V23" s="1"/>
+      <c r="W23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="5" t="s">
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>105</v>
-      </c>
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" t="s">
-        <v>82</v>
+        <v>102</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
       </c>
       <c r="G24" t="s">
         <v>70</v>
@@ -2388,51 +2420,51 @@
         <v>57</v>
       </c>
       <c r="M24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O24" t="s">
-        <v>86</v>
-      </c>
-      <c r="W24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="X24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AB24" s="4" t="s">
+      <c r="AA24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="5" t="s">
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="AE24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" t="s">
-        <v>60</v>
+        <v>103</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>8</v>
       </c>
       <c r="G25" t="s">
         <v>75</v>
@@ -2450,125 +2482,126 @@
         <v>56</v>
       </c>
       <c r="L25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O25" t="s">
-        <v>86</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U25" s="1"/>
-      <c r="V25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="W25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="4" t="s">
+      <c r="X25" s="1"/>
+      <c r="Y25" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC25" s="4"/>
-      <c r="AD25" s="5" t="s">
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="3" t="s">
         <v>48</v>
+      </c>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="84">
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:X2"/>
-    <mergeCell ref="Y2:AA2"/>
+  <mergeCells count="85">
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="V2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AI3"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:Z6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AG9:AI9"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AA10"/>
     <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="W13:Z13"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="W14:Z14"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:Z15"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AE10:AI10"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="W11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AF11"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AC13"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AC14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AC15"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="AB16:AD16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AA18"/>
     <mergeCell ref="AB18:AD18"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:W19"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="Z19:AB19"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:Y20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="X24:Z24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AE18:AI18"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:Z19"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AE19"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="Y20:AB20"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AA24:AC24"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="AE25:AF25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
